--- a/natmiOut/OldD7/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.39998887902971</v>
+        <v>2.580781333333333</v>
       </c>
       <c r="H2">
-        <v>2.39998887902971</v>
+        <v>7.742344</v>
       </c>
       <c r="I2">
-        <v>0.08836094054164723</v>
+        <v>0.09250274102763278</v>
       </c>
       <c r="J2">
-        <v>0.08836094054164723</v>
+        <v>0.0925027410276328</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5806166985054571</v>
+        <v>0.09268433333333333</v>
       </c>
       <c r="N2">
-        <v>0.5806166985054571</v>
+        <v>0.278053</v>
       </c>
       <c r="O2">
-        <v>0.7918357906488654</v>
+        <v>0.1040432947149345</v>
       </c>
       <c r="P2">
-        <v>0.7918357906488654</v>
+        <v>0.1040432947149346</v>
       </c>
       <c r="Q2">
-        <v>1.393473619392043</v>
+        <v>0.2391979973591111</v>
       </c>
       <c r="R2">
-        <v>1.393473619392043</v>
+        <v>2.152781976232</v>
       </c>
       <c r="S2">
-        <v>0.06996735521627262</v>
+        <v>0.009624289946677264</v>
       </c>
       <c r="T2">
-        <v>0.06996735521627262</v>
+        <v>0.009624289946677267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.39998887902971</v>
+        <v>2.580781333333333</v>
       </c>
       <c r="H3">
-        <v>2.39998887902971</v>
+        <v>7.742344</v>
       </c>
       <c r="I3">
-        <v>0.08836094054164723</v>
+        <v>0.09250274102763278</v>
       </c>
       <c r="J3">
-        <v>0.08836094054164723</v>
+        <v>0.0925027410276328</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.152637222777482</v>
+        <v>0.5898666666666667</v>
       </c>
       <c r="N3">
-        <v>0.152637222777482</v>
+        <v>1.7696</v>
       </c>
       <c r="O3">
-        <v>0.2081642093511345</v>
+        <v>0.6621579854471923</v>
       </c>
       <c r="P3">
-        <v>0.2081642093511345</v>
+        <v>0.6621579854471924</v>
       </c>
       <c r="Q3">
-        <v>0.3663276371919372</v>
+        <v>1.522316882488889</v>
       </c>
       <c r="R3">
-        <v>0.3663276371919372</v>
+        <v>13.7008519424</v>
       </c>
       <c r="S3">
-        <v>0.0183935853253746</v>
+        <v>0.06125142864720066</v>
       </c>
       <c r="T3">
-        <v>0.0183935853253746</v>
+        <v>0.06125142864720069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.7213782095763</v>
+        <v>2.580781333333333</v>
       </c>
       <c r="H4">
-        <v>20.7213782095763</v>
+        <v>7.742344</v>
       </c>
       <c r="I4">
-        <v>0.7629037300612801</v>
+        <v>0.09250274102763278</v>
       </c>
       <c r="J4">
-        <v>0.7629037300612801</v>
+        <v>0.0925027410276328</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5806166985054571</v>
+        <v>0.2082736666666667</v>
       </c>
       <c r="N4">
-        <v>0.5806166985054571</v>
+        <v>0.624821</v>
       </c>
       <c r="O4">
-        <v>0.7918357906488654</v>
+        <v>0.2337987198378731</v>
       </c>
       <c r="P4">
-        <v>0.7918357906488654</v>
+        <v>0.2337987198378731</v>
       </c>
       <c r="Q4">
-        <v>12.03117820452711</v>
+        <v>0.5375087911582223</v>
       </c>
       <c r="R4">
-        <v>12.03117820452711</v>
+        <v>4.837579120424</v>
       </c>
       <c r="S4">
-        <v>0.6040944782820423</v>
+        <v>0.02162702243375484</v>
       </c>
       <c r="T4">
-        <v>0.6040944782820423</v>
+        <v>0.02162702243375485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.7213782095763</v>
+        <v>20.80139666666667</v>
       </c>
       <c r="H5">
-        <v>20.7213782095763</v>
+        <v>62.40418999999999</v>
       </c>
       <c r="I5">
-        <v>0.7629037300612801</v>
+        <v>0.7455828140172008</v>
       </c>
       <c r="J5">
-        <v>0.7629037300612801</v>
+        <v>0.7455828140172009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.152637222777482</v>
+        <v>0.09268433333333333</v>
       </c>
       <c r="N5">
-        <v>0.152637222777482</v>
+        <v>0.278053</v>
       </c>
       <c r="O5">
-        <v>0.2081642093511345</v>
+        <v>0.1040432947149345</v>
       </c>
       <c r="P5">
-        <v>0.2081642093511345</v>
+        <v>0.1040432947149346</v>
       </c>
       <c r="Q5">
-        <v>3.162853622031559</v>
+        <v>1.927963582452222</v>
       </c>
       <c r="R5">
-        <v>3.162853622031559</v>
+        <v>17.35167224207</v>
       </c>
       <c r="S5">
-        <v>0.1588092517792377</v>
+        <v>0.07757289245318186</v>
       </c>
       <c r="T5">
-        <v>0.1588092517792377</v>
+        <v>0.07757289245318187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.292990694087169</v>
+        <v>20.80139666666667</v>
       </c>
       <c r="H6">
-        <v>0.292990694087169</v>
+        <v>62.40418999999999</v>
       </c>
       <c r="I6">
-        <v>0.01078710552607182</v>
+        <v>0.7455828140172008</v>
       </c>
       <c r="J6">
-        <v>0.01078710552607182</v>
+        <v>0.7455828140172009</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5806166985054571</v>
+        <v>0.5898666666666667</v>
       </c>
       <c r="N6">
-        <v>0.5806166985054571</v>
+        <v>1.7696</v>
       </c>
       <c r="O6">
-        <v>0.7918357906488654</v>
+        <v>0.6621579854471923</v>
       </c>
       <c r="P6">
-        <v>0.7918357906488654</v>
+        <v>0.6621579854471924</v>
       </c>
       <c r="Q6">
-        <v>0.1701152894937144</v>
+        <v>12.27005051377778</v>
       </c>
       <c r="R6">
-        <v>0.1701152894937144</v>
+        <v>110.430454624</v>
       </c>
       <c r="S6">
-        <v>0.008541616233049824</v>
+        <v>0.4936936141136783</v>
       </c>
       <c r="T6">
-        <v>0.008541616233049824</v>
+        <v>0.4936936141136785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.292990694087169</v>
+        <v>20.80139666666667</v>
       </c>
       <c r="H7">
-        <v>0.292990694087169</v>
+        <v>62.40418999999999</v>
       </c>
       <c r="I7">
-        <v>0.01078710552607182</v>
+        <v>0.7455828140172008</v>
       </c>
       <c r="J7">
-        <v>0.01078710552607182</v>
+        <v>0.7455828140172009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.152637222777482</v>
+        <v>0.2082736666666667</v>
       </c>
       <c r="N7">
-        <v>0.152637222777482</v>
+        <v>0.624821</v>
       </c>
       <c r="O7">
-        <v>0.2081642093511345</v>
+        <v>0.2337987198378731</v>
       </c>
       <c r="P7">
-        <v>0.2081642093511345</v>
+        <v>0.2337987198378731</v>
       </c>
       <c r="Q7">
-        <v>0.04472128584511229</v>
+        <v>4.332383155554444</v>
       </c>
       <c r="R7">
-        <v>0.04472128584511229</v>
+        <v>38.99144839998999</v>
       </c>
       <c r="S7">
-        <v>0.002245489293021994</v>
+        <v>0.1743163074503405</v>
       </c>
       <c r="T7">
-        <v>0.002245489293021994</v>
+        <v>0.1743163074503406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.74683883108122</v>
+        <v>0.305159</v>
       </c>
       <c r="H8">
-        <v>3.74683883108122</v>
+        <v>0.915477</v>
       </c>
       <c r="I8">
-        <v>0.1379482238710008</v>
+        <v>0.01093778987962227</v>
       </c>
       <c r="J8">
-        <v>0.1379482238710008</v>
+        <v>0.01093778987962227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.5806166985054571</v>
+        <v>0.09268433333333333</v>
       </c>
       <c r="N8">
-        <v>0.5806166985054571</v>
+        <v>0.278053</v>
       </c>
       <c r="O8">
-        <v>0.7918357906488654</v>
+        <v>0.1040432947149345</v>
       </c>
       <c r="P8">
-        <v>0.7918357906488654</v>
+        <v>0.1040432947149346</v>
       </c>
       <c r="Q8">
-        <v>2.175477191934424</v>
+        <v>0.02828345847566667</v>
       </c>
       <c r="R8">
-        <v>2.175477191934424</v>
+        <v>0.254551126281</v>
       </c>
       <c r="S8">
-        <v>0.1092323409175006</v>
+        <v>0.001138003695975568</v>
       </c>
       <c r="T8">
-        <v>0.1092323409175006</v>
+        <v>0.001138003695975568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.305159</v>
+      </c>
+      <c r="H9">
+        <v>0.915477</v>
+      </c>
+      <c r="I9">
+        <v>0.01093778987962227</v>
+      </c>
+      <c r="J9">
+        <v>0.01093778987962227</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5898666666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.7696</v>
+      </c>
+      <c r="O9">
+        <v>0.6621579854471923</v>
+      </c>
+      <c r="P9">
+        <v>0.6621579854471924</v>
+      </c>
+      <c r="Q9">
+        <v>0.1800031221333333</v>
+      </c>
+      <c r="R9">
+        <v>1.6200280992</v>
+      </c>
+      <c r="S9">
+        <v>0.007242544911935368</v>
+      </c>
+      <c r="T9">
+        <v>0.007242544911935371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.74683883108122</v>
-      </c>
-      <c r="H9">
-        <v>3.74683883108122</v>
-      </c>
-      <c r="I9">
-        <v>0.1379482238710008</v>
-      </c>
-      <c r="J9">
-        <v>0.1379482238710008</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.152637222777482</v>
-      </c>
-      <c r="N9">
-        <v>0.152637222777482</v>
-      </c>
-      <c r="O9">
-        <v>0.2081642093511345</v>
-      </c>
-      <c r="P9">
-        <v>0.2081642093511345</v>
-      </c>
-      <c r="Q9">
-        <v>0.5719070733710645</v>
-      </c>
-      <c r="R9">
-        <v>0.5719070733710645</v>
-      </c>
-      <c r="S9">
-        <v>0.02871588295350018</v>
-      </c>
-      <c r="T9">
-        <v>0.02871588295350018</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.305159</v>
+      </c>
+      <c r="H10">
+        <v>0.915477</v>
+      </c>
+      <c r="I10">
+        <v>0.01093778987962227</v>
+      </c>
+      <c r="J10">
+        <v>0.01093778987962227</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2082736666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.624821</v>
+      </c>
+      <c r="O10">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="P10">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="Q10">
+        <v>0.06355658384633334</v>
+      </c>
+      <c r="R10">
+        <v>0.5720092546169999</v>
+      </c>
+      <c r="S10">
+        <v>0.00255724127171133</v>
+      </c>
+      <c r="T10">
+        <v>0.00255724127171133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.212175</v>
+      </c>
+      <c r="H11">
+        <v>12.636525</v>
+      </c>
+      <c r="I11">
+        <v>0.150976655075544</v>
+      </c>
+      <c r="J11">
+        <v>0.150976655075544</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.09268433333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.278053</v>
+      </c>
+      <c r="O11">
+        <v>0.1040432947149345</v>
+      </c>
+      <c r="P11">
+        <v>0.1040432947149346</v>
+      </c>
+      <c r="Q11">
+        <v>0.3904026317583333</v>
+      </c>
+      <c r="R11">
+        <v>3.513623685825</v>
+      </c>
+      <c r="S11">
+        <v>0.01570810861909984</v>
+      </c>
+      <c r="T11">
+        <v>0.01570810861909984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.212175</v>
+      </c>
+      <c r="H12">
+        <v>12.636525</v>
+      </c>
+      <c r="I12">
+        <v>0.150976655075544</v>
+      </c>
+      <c r="J12">
+        <v>0.150976655075544</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5898666666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.7696</v>
+      </c>
+      <c r="O12">
+        <v>0.6621579854471923</v>
+      </c>
+      <c r="P12">
+        <v>0.6621579854471924</v>
+      </c>
+      <c r="Q12">
+        <v>2.484621626666667</v>
+      </c>
+      <c r="R12">
+        <v>22.36159464</v>
+      </c>
+      <c r="S12">
+        <v>0.09997039777437781</v>
+      </c>
+      <c r="T12">
+        <v>0.09997039777437786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.212175</v>
+      </c>
+      <c r="H13">
+        <v>12.636525</v>
+      </c>
+      <c r="I13">
+        <v>0.150976655075544</v>
+      </c>
+      <c r="J13">
+        <v>0.150976655075544</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2082736666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.624821</v>
+      </c>
+      <c r="O13">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="P13">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="Q13">
+        <v>0.8772851318916667</v>
+      </c>
+      <c r="R13">
+        <v>7.895566187025</v>
+      </c>
+      <c r="S13">
+        <v>0.0352981486820663</v>
+      </c>
+      <c r="T13">
+        <v>0.03529814868206631</v>
       </c>
     </row>
   </sheetData>
